--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539565.7807741861</v>
+        <v>-542078.1891555509</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.0986976758381</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>256.2534865485207</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>103.3700836929881</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991794</v>
+        <v>283.7299048743836</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>72.33270390034123</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>165.7060625238169</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>219.1444751151306</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>36.32707961669585</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>134.0134608363801</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>25.64039418486101</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.9263925518346</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>90.14863908058278</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>160.6285048151955</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.9154861872842</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>33.2461711990992</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.255571502167253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9154861872836</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>95.81917536083702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.353293732295</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.390776791884</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.125078185133</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>778.3368255868891</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>778.3368255868891</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
         <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796417</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,13 +4410,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,16 +4431,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2078.679253373407</v>
+        <v>633.4322200902812</v>
       </c>
       <c r="C4" t="n">
-        <v>1909.743070445501</v>
+        <v>633.4322200902812</v>
       </c>
       <c r="D4" t="n">
-        <v>1759.626431033165</v>
+        <v>633.4322200902812</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450772</v>
+        <v>485.5191265078881</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952862</v>
+        <v>338.6291790099777</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>170.9263423846967</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>3253.211506488042</v>
+        <v>1359.182343163369</v>
       </c>
       <c r="V4" t="n">
-        <v>2998.527018282155</v>
+        <v>1104.497854957482</v>
       </c>
       <c r="W4" t="n">
-        <v>2709.109848245194</v>
+        <v>815.080684920521</v>
       </c>
       <c r="X4" t="n">
-        <v>2481.120297347177</v>
+        <v>815.080684920521</v>
       </c>
       <c r="Y4" t="n">
-        <v>2260.327718203647</v>
+        <v>815.080684920521</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.898819086399</v>
+        <v>2120.647175555804</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1751.684658615392</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1393.418960008642</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1007.630707410398</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>596.6448026207902</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>181.5723524657867</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3047.935292001097</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3047.935292001097</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2716.872404657527</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.103749387412</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X5" t="n">
-        <v>1990.637991126332</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y5" t="n">
-        <v>1600.498659150521</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4647,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.2582702654239</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1616.106035174172</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.688865137211</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.699314239194</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.9067350956636</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2012.898941548397</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1040.650304738526</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>654.862052140282</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>243.8761473506744</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524209</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548397</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1901.395160022977</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1901.395160022977</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1901.395160022977</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1612.29229314862</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1357.607804942733</v>
       </c>
       <c r="W10" t="n">
-        <v>1144.703422960057</v>
+        <v>1068.190634905772</v>
       </c>
       <c r="X10" t="n">
-        <v>1144.703422960057</v>
+        <v>1068.190634905772</v>
       </c>
       <c r="Y10" t="n">
-        <v>923.9108438165264</v>
+        <v>847.3980557622424</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2106.00331409304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.00331409304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887153</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850192</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952175</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711303</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2413.381092470059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2230.526258124964</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2010.924793147904</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1721.849566492102</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1467.165078286215</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1177.747908249255</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>956.9553291057244</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7123,13 +7123,13 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
         <v>1202.091371290588</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7822,16 +7822,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8230279776153111</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>113.4776141299483</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>169.7287544298584</v>
+        <v>2.481933331229229</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>127.2568112467055</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.08115057384163</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819412</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>33.12907551102249</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.33133491134424</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.709566198145672e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
@@ -26329,13 +26329,13 @@
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="I2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="J2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="I2" t="n">
-        <v>262322.644899252</v>
-      </c>
-      <c r="J2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363178</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23396.52241078389</v>
+        <v>23396.52241078392</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813254</v>
@@ -26433,19 +26433,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678122</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678123</v>
@@ -26457,7 +26457,7 @@
         <v>18547.94754987468</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1231015.564923871</v>
+        <v>-1231306.172088717</v>
       </c>
       <c r="C6" t="n">
-        <v>69160.51158636643</v>
+        <v>69160.51158636651</v>
       </c>
       <c r="D6" t="n">
-        <v>69160.51158636634</v>
+        <v>69160.51158636622</v>
       </c>
       <c r="E6" t="n">
-        <v>-174769.4350187919</v>
+        <v>-174804.1729442273</v>
       </c>
       <c r="F6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="G6" t="n">
-        <v>150643.0267885638</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="H6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="I6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="J6" t="n">
-        <v>-66888.17560871385</v>
+        <v>-66922.91353414948</v>
       </c>
       <c r="K6" t="n">
-        <v>150643.0267885637</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="L6" t="n">
-        <v>150643.0267885637</v>
+        <v>150608.288863128</v>
       </c>
       <c r="M6" t="n">
-        <v>65587.99885305179</v>
+        <v>65553.26092761609</v>
       </c>
       <c r="N6" t="n">
         <v>125698.7938084706</v>
@@ -26561,7 +26561,7 @@
         <v>145126.5118021023</v>
       </c>
       <c r="P6" t="n">
-        <v>145126.5118021021</v>
+        <v>145126.5118021023</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>41.38493122133264</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>44.8127118058365</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>222.2750604869792</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.21190761580328</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>32.9931682086974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>61.76674224145185</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>328.9458121543117</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>276.9082648170733</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>63.29175848518632</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>42.59660578475643</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
